--- a/lembar kesuksesan.xlsx
+++ b/lembar kesuksesan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA22AC5-1C88-4FD8-BB6A-8B89CE676D71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657587E-1F31-4539-A936-05BD7BCFD6ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
     <t>Quest :</t>
   </si>
   <si>
-    <t xml:space="preserve">Download : </t>
+    <t>Download : ungu.in/lembar-kesuksesan</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -101,19 +101,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
       </bottom>
       <diagonal/>
     </border>
@@ -263,13 +250,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -284,7 +271,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,8 +558,8 @@
   </sheetPr>
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,168 +612,168 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:Q5" si="0">B5+1</f>
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <f t="shared" ref="R5:AF5" si="1">Q5+1</f>
         <v>17</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="6"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -815,11 +803,11 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="8"/>
+      <c r="AF7" s="7"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -849,11 +837,11 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="8"/>
+      <c r="AF8" s="7"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -883,11 +871,11 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="8"/>
+      <c r="AF9" s="7"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -917,11 +905,11 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="8"/>
+      <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -951,11 +939,11 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="8"/>
+      <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -985,11 +973,11 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="8"/>
+      <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1019,11 +1007,11 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="8"/>
+      <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1053,41 +1041,41 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="8"/>
+      <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="11"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="10"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -1096,7 +1084,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12">
-        <f t="shared" ref="E17:N19" si="2">B17+1</f>
+        <f t="shared" ref="E17:N17" si="2">B17+1</f>
         <v>2</v>
       </c>
       <c r="F17" s="12"/>
@@ -1120,7 +1108,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12">
-        <f t="shared" ref="Q17:Z19" si="3">N17+1</f>
+        <f t="shared" ref="Q17:Z17" si="3">N17+1</f>
         <v>6</v>
       </c>
       <c r="R17" s="12"/>
@@ -1144,7 +1132,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12">
-        <f t="shared" ref="AC17:AL19" si="4">Z17+1</f>
+        <f t="shared" ref="AC17" si="4">Z17+1</f>
         <v>10</v>
       </c>
       <c r="AD17" s="12"/>
@@ -1221,7 +1209,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12">
-        <f t="shared" ref="E20:N22" si="5">B20+1</f>
+        <f t="shared" ref="E20:N20" si="5">B20+1</f>
         <v>12</v>
       </c>
       <c r="F20" s="12"/>
@@ -1245,7 +1233,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12">
-        <f t="shared" ref="Q20:Z22" si="6">N20+1</f>
+        <f t="shared" ref="Q20:Z20" si="6">N20+1</f>
         <v>16</v>
       </c>
       <c r="R20" s="12"/>
@@ -1269,7 +1257,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12">
-        <f t="shared" ref="AC20:AL22" si="7">Z20+1</f>
+        <f t="shared" ref="AC20" si="7">Z20+1</f>
         <v>20</v>
       </c>
       <c r="AD20" s="12"/>
@@ -1346,7 +1334,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:N25" si="8">B23+1</f>
+        <f t="shared" ref="E23:N23" si="8">B23+1</f>
         <v>22</v>
       </c>
       <c r="F23" s="12"/>
@@ -1370,7 +1358,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12">
-        <f t="shared" ref="Q23:Z25" si="9">N23+1</f>
+        <f t="shared" ref="Q23:Z23" si="9">N23+1</f>
         <v>26</v>
       </c>
       <c r="R23" s="12"/>
@@ -1394,7 +1382,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12">
-        <f t="shared" ref="AC23:AL25" si="10">Z23+1</f>
+        <f t="shared" ref="AC23" si="10">Z23+1</f>
         <v>30</v>
       </c>
       <c r="AD23" s="12"/>
@@ -1563,38 +1551,38 @@
       <c r="AE28" s="12"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1605,168 +1593,168 @@
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" ref="C33:AF33" si="11">B33+1</f>
         <v>2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="2">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="2">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="2">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="2">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="2">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="2">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="2">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="2">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="2">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="2">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="2">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="2">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="2">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AE33" s="2">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AF33" s="2">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="6"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1796,11 +1784,11 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="8"/>
+      <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1830,11 +1818,11 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="8"/>
+      <c r="AF36" s="7"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1864,11 +1852,11 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="8"/>
+      <c r="AF37" s="7"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1898,11 +1886,11 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="8"/>
+      <c r="AF38" s="7"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1932,11 +1920,11 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="8"/>
+      <c r="AF39" s="7"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1966,11 +1954,11 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="8"/>
+      <c r="AF40" s="7"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2000,11 +1988,11 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="8"/>
+      <c r="AF41" s="7"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2034,41 +2022,41 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
-      <c r="AF42" s="8"/>
+      <c r="AF42" s="7"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="11"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="10"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
@@ -2077,55 +2065,55 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12">
-        <f t="shared" ref="E45:E47" si="12">B45+1</f>
+        <f t="shared" ref="E45" si="12">B45+1</f>
         <v>2</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12">
-        <f t="shared" ref="H45:H47" si="13">E45+1</f>
+        <f t="shared" ref="H45" si="13">E45+1</f>
         <v>3</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12">
-        <f t="shared" ref="K45:K47" si="14">H45+1</f>
+        <f t="shared" ref="K45" si="14">H45+1</f>
         <v>4</v>
       </c>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12">
-        <f t="shared" ref="N45:N47" si="15">K45+1</f>
+        <f t="shared" ref="N45" si="15">K45+1</f>
         <v>5</v>
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12">
-        <f t="shared" ref="Q45:Q47" si="16">N45+1</f>
+        <f t="shared" ref="Q45" si="16">N45+1</f>
         <v>6</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="T45" s="12">
-        <f t="shared" ref="T45:T47" si="17">Q45+1</f>
+        <f t="shared" ref="T45" si="17">Q45+1</f>
         <v>7</v>
       </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
       <c r="W45" s="12">
-        <f t="shared" ref="W45:W47" si="18">T45+1</f>
+        <f t="shared" ref="W45" si="18">T45+1</f>
         <v>8</v>
       </c>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12">
-        <f t="shared" ref="Z45:Z47" si="19">W45+1</f>
+        <f t="shared" ref="Z45" si="19">W45+1</f>
         <v>9</v>
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12">
-        <f t="shared" ref="AC45:AC47" si="20">Z45+1</f>
+        <f t="shared" ref="AC45" si="20">Z45+1</f>
         <v>10</v>
       </c>
       <c r="AD45" s="12"/>
@@ -2202,55 +2190,55 @@
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12">
-        <f t="shared" ref="E48:E50" si="21">B48+1</f>
+        <f t="shared" ref="E48" si="21">B48+1</f>
         <v>12</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12">
-        <f t="shared" ref="H48:H50" si="22">E48+1</f>
+        <f t="shared" ref="H48" si="22">E48+1</f>
         <v>13</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12">
-        <f t="shared" ref="K48:K50" si="23">H48+1</f>
+        <f t="shared" ref="K48" si="23">H48+1</f>
         <v>14</v>
       </c>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12">
-        <f t="shared" ref="N48:N50" si="24">K48+1</f>
+        <f t="shared" ref="N48" si="24">K48+1</f>
         <v>15</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12">
-        <f t="shared" ref="Q48:Q50" si="25">N48+1</f>
+        <f t="shared" ref="Q48" si="25">N48+1</f>
         <v>16</v>
       </c>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12">
-        <f t="shared" ref="T48:T50" si="26">Q48+1</f>
+        <f t="shared" ref="T48" si="26">Q48+1</f>
         <v>17</v>
       </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12">
-        <f t="shared" ref="W48:W50" si="27">T48+1</f>
+        <f t="shared" ref="W48" si="27">T48+1</f>
         <v>18</v>
       </c>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12">
-        <f t="shared" ref="Z48:Z50" si="28">W48+1</f>
+        <f t="shared" ref="Z48" si="28">W48+1</f>
         <v>19</v>
       </c>
       <c r="AA48" s="12"/>
       <c r="AB48" s="12"/>
       <c r="AC48" s="12">
-        <f t="shared" ref="AC48:AC50" si="29">Z48+1</f>
+        <f t="shared" ref="AC48" si="29">Z48+1</f>
         <v>20</v>
       </c>
       <c r="AD48" s="12"/>
@@ -2327,55 +2315,55 @@
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12">
-        <f t="shared" ref="E51:E53" si="30">B51+1</f>
+        <f t="shared" ref="E51" si="30">B51+1</f>
         <v>22</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12">
-        <f t="shared" ref="H51:H53" si="31">E51+1</f>
+        <f t="shared" ref="H51" si="31">E51+1</f>
         <v>23</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12">
-        <f t="shared" ref="K51:K53" si="32">H51+1</f>
+        <f t="shared" ref="K51" si="32">H51+1</f>
         <v>24</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12">
-        <f t="shared" ref="N51:N53" si="33">K51+1</f>
+        <f t="shared" ref="N51" si="33">K51+1</f>
         <v>25</v>
       </c>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12">
-        <f t="shared" ref="Q51:Q53" si="34">N51+1</f>
+        <f t="shared" ref="Q51" si="34">N51+1</f>
         <v>26</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12">
-        <f t="shared" ref="T51:T53" si="35">Q51+1</f>
+        <f t="shared" ref="T51" si="35">Q51+1</f>
         <v>27</v>
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
       <c r="W51" s="12">
-        <f t="shared" ref="W51:W53" si="36">T51+1</f>
+        <f t="shared" ref="W51" si="36">T51+1</f>
         <v>28</v>
       </c>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12">
-        <f t="shared" ref="Z51:Z53" si="37">W51+1</f>
+        <f t="shared" ref="Z51" si="37">W51+1</f>
         <v>29</v>
       </c>
       <c r="AA51" s="12"/>
       <c r="AB51" s="12"/>
       <c r="AC51" s="12">
-        <f t="shared" ref="AC51:AC53" si="38">Z51+1</f>
+        <f t="shared" ref="AC51" si="38">Z51+1</f>
         <v>30</v>
       </c>
       <c r="AD51" s="12"/>
@@ -2550,30 +2538,53 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="T54:V56"/>
-    <mergeCell ref="W54:Y56"/>
-    <mergeCell ref="Z54:AB56"/>
-    <mergeCell ref="AC54:AE56"/>
-    <mergeCell ref="T51:V53"/>
-    <mergeCell ref="W51:Y53"/>
-    <mergeCell ref="Z51:AB53"/>
-    <mergeCell ref="AC51:AE53"/>
-    <mergeCell ref="B54:D56"/>
-    <mergeCell ref="E54:G56"/>
-    <mergeCell ref="H54:J56"/>
-    <mergeCell ref="K54:M56"/>
-    <mergeCell ref="N54:P56"/>
-    <mergeCell ref="Q54:S56"/>
-    <mergeCell ref="T48:V50"/>
-    <mergeCell ref="W48:Y50"/>
-    <mergeCell ref="Z48:AB50"/>
-    <mergeCell ref="AC48:AE50"/>
-    <mergeCell ref="B51:D53"/>
-    <mergeCell ref="E51:G53"/>
-    <mergeCell ref="H51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N51:P53"/>
-    <mergeCell ref="Q51:S53"/>
+    <mergeCell ref="AC20:AE22"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="B17:D19"/>
+    <mergeCell ref="E17:G19"/>
+    <mergeCell ref="H17:J19"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="N17:P19"/>
+    <mergeCell ref="Q17:S19"/>
+    <mergeCell ref="T17:V19"/>
+    <mergeCell ref="W17:Y19"/>
+    <mergeCell ref="Z17:AB19"/>
+    <mergeCell ref="AC17:AE19"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="E20:G22"/>
+    <mergeCell ref="H20:J22"/>
+    <mergeCell ref="K20:M22"/>
+    <mergeCell ref="N20:P22"/>
+    <mergeCell ref="Q20:S22"/>
+    <mergeCell ref="T20:V22"/>
+    <mergeCell ref="W20:Y22"/>
+    <mergeCell ref="Z20:AB22"/>
+    <mergeCell ref="T23:V25"/>
+    <mergeCell ref="W23:Y25"/>
+    <mergeCell ref="Z23:AB25"/>
+    <mergeCell ref="AC23:AE25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:G28"/>
+    <mergeCell ref="H26:J28"/>
+    <mergeCell ref="K26:M28"/>
+    <mergeCell ref="N26:P28"/>
+    <mergeCell ref="Q26:S28"/>
+    <mergeCell ref="B23:D25"/>
+    <mergeCell ref="E23:G25"/>
+    <mergeCell ref="H23:J25"/>
+    <mergeCell ref="K23:M25"/>
+    <mergeCell ref="N23:P25"/>
+    <mergeCell ref="Q23:S25"/>
+    <mergeCell ref="T26:V28"/>
+    <mergeCell ref="W26:Y28"/>
+    <mergeCell ref="Z26:AB28"/>
+    <mergeCell ref="AC26:AE28"/>
+    <mergeCell ref="B45:D47"/>
+    <mergeCell ref="E45:G47"/>
+    <mergeCell ref="H45:J47"/>
+    <mergeCell ref="K45:M47"/>
+    <mergeCell ref="N45:P47"/>
+    <mergeCell ref="Q45:S47"/>
     <mergeCell ref="T45:V47"/>
     <mergeCell ref="W45:Y47"/>
     <mergeCell ref="Z45:AB47"/>
@@ -2584,53 +2595,30 @@
     <mergeCell ref="K48:M50"/>
     <mergeCell ref="N48:P50"/>
     <mergeCell ref="Q48:S50"/>
-    <mergeCell ref="T26:V28"/>
-    <mergeCell ref="W26:Y28"/>
-    <mergeCell ref="Z26:AB28"/>
-    <mergeCell ref="AC26:AE28"/>
-    <mergeCell ref="B45:D47"/>
-    <mergeCell ref="E45:G47"/>
-    <mergeCell ref="H45:J47"/>
-    <mergeCell ref="K45:M47"/>
-    <mergeCell ref="N45:P47"/>
-    <mergeCell ref="Q45:S47"/>
-    <mergeCell ref="T23:V25"/>
-    <mergeCell ref="W23:Y25"/>
-    <mergeCell ref="Z23:AB25"/>
-    <mergeCell ref="AC23:AE25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:G28"/>
-    <mergeCell ref="H26:J28"/>
-    <mergeCell ref="K26:M28"/>
-    <mergeCell ref="N26:P28"/>
-    <mergeCell ref="Q26:S28"/>
-    <mergeCell ref="N20:P22"/>
-    <mergeCell ref="Q20:S22"/>
-    <mergeCell ref="T20:V22"/>
-    <mergeCell ref="W20:Y22"/>
-    <mergeCell ref="Z20:AB22"/>
-    <mergeCell ref="AC20:AE22"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="B17:D19"/>
-    <mergeCell ref="E17:G19"/>
-    <mergeCell ref="H17:J19"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="N17:P19"/>
-    <mergeCell ref="Q17:S19"/>
-    <mergeCell ref="T17:V19"/>
-    <mergeCell ref="W17:Y19"/>
-    <mergeCell ref="B23:D25"/>
-    <mergeCell ref="E23:G25"/>
-    <mergeCell ref="H23:J25"/>
-    <mergeCell ref="K23:M25"/>
-    <mergeCell ref="N23:P25"/>
-    <mergeCell ref="Q23:S25"/>
-    <mergeCell ref="Z17:AB19"/>
-    <mergeCell ref="AC17:AE19"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="E20:G22"/>
-    <mergeCell ref="H20:J22"/>
-    <mergeCell ref="K20:M22"/>
+    <mergeCell ref="B51:D53"/>
+    <mergeCell ref="E51:G53"/>
+    <mergeCell ref="H51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N51:P53"/>
+    <mergeCell ref="Q54:S56"/>
+    <mergeCell ref="T48:V50"/>
+    <mergeCell ref="W48:Y50"/>
+    <mergeCell ref="Z48:AB50"/>
+    <mergeCell ref="AC48:AE50"/>
+    <mergeCell ref="Q51:S53"/>
+    <mergeCell ref="B54:D56"/>
+    <mergeCell ref="E54:G56"/>
+    <mergeCell ref="H54:J56"/>
+    <mergeCell ref="K54:M56"/>
+    <mergeCell ref="N54:P56"/>
+    <mergeCell ref="T54:V56"/>
+    <mergeCell ref="W54:Y56"/>
+    <mergeCell ref="Z54:AB56"/>
+    <mergeCell ref="AC54:AE56"/>
+    <mergeCell ref="T51:V53"/>
+    <mergeCell ref="W51:Y53"/>
+    <mergeCell ref="Z51:AB53"/>
+    <mergeCell ref="AC51:AE53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
